--- a/rekap baru/2021-09.xlsx
+++ b/rekap baru/2021-09.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7845" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="3" r:id="rId1"/>
@@ -1935,8 +1935,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2763,7 +2763,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3146,7 +3146,7 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/rekap baru/2021-09.xlsx
+++ b/rekap baru/2021-09.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20378"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\pesantren\rekap-tahfidz\rekap baru\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36883B25-4792-4041-8BF8-E58E792E89C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="3" r:id="rId1"/>
@@ -18,12 +24,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2 putra'!$A$1:$H$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2 putri'!$A$1:$H$24</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
   <si>
     <t>DATA PENCAPAIAN TAHFIDZ</t>
   </si>
@@ -346,23 +352,72 @@
   <si>
     <t>20.02.016</t>
   </si>
+  <si>
+    <t>Al-Baqarah: 88</t>
+  </si>
+  <si>
+    <t>Ali Imran: 37</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 169</t>
+  </si>
+  <si>
+    <t>Ali Imran: 115</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 245</t>
+  </si>
+  <si>
+    <t>Ali Imran: 153</t>
+  </si>
+  <si>
+    <t>An-Nisa: 14</t>
+  </si>
+  <si>
+    <t>Al-Maidah: 5</t>
+  </si>
+  <si>
+    <t>At-Taubah: 68</t>
+  </si>
+  <si>
+    <t>Al-Anfal: 40</t>
+  </si>
+  <si>
+    <t>An-Nisa: 101</t>
+  </si>
+  <si>
+    <t>Al-Maidah: 23</t>
+  </si>
+  <si>
+    <t>Yusuf: 103</t>
+  </si>
+  <si>
+    <t>Yusuf: 37</t>
+  </si>
+  <si>
+    <t>Al-Maidah: 57</t>
+  </si>
+  <si>
+    <t>Ali Imran: 29</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,156 +444,19 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,192 +465,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFF4747"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -818,272 +556,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1098,38 +585,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1139,72 +617,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1217,16 +803,25 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4747"/>
+      <color rgb="FFFF8989"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1237,13 +832,19 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1305,13 +906,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1338,7 +945,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1349,13 +956,19 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1417,13 +1030,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1436,8 +1055,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5535930" y="0"/>
-          <a:ext cx="807720" cy="847725"/>
+          <a:off x="4058224" y="0"/>
+          <a:ext cx="807643" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1450,7 +1069,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1461,13 +1080,19 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1517,25 +1142,31 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1107440</xdr:colOff>
+      <xdr:colOff>818116</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
+      <xdr:colOff>684335</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>848360</xdr:rowOff>
+      <xdr:rowOff>847725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76520058-4042-4CA4-A29F-C194995D4A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1548,8 +1179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5270500" y="635"/>
-          <a:ext cx="807720" cy="847725"/>
+          <a:off x="3730994" y="0"/>
+          <a:ext cx="807643" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1562,7 +1193,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1573,13 +1204,19 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1641,13 +1278,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1925,448 +1568,449 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:H24"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.4266666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.14" customWidth="1"/>
-    <col min="3" max="3" width="11.2866666666667" customWidth="1"/>
-    <col min="4" max="4" width="24.8533333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.14" customWidth="1"/>
-    <col min="6" max="6" width="11.8533333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.8533333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.7133333333333" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="111.75" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="111.75" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="26"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>30</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>8</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="15">
         <v>591</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="16">
         <f>3/20</f>
         <v>0.15</v>
       </c>
-      <c r="H6" s="11" t="str">
+      <c r="H6" s="7" t="str">
         <f t="shared" ref="H6:H15" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>42</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="15">
         <v>42</v>
       </c>
-      <c r="G7" s="22">
-        <f t="shared" ref="G6:G7" si="1">(F7-E7+20)/20</f>
+      <c r="G7" s="16">
+        <f t="shared" ref="G7" si="1">(F7-E7+20)/20</f>
         <v>1</v>
       </c>
-      <c r="H7" s="11" t="str">
+      <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>60</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="15">
         <v>58</v>
       </c>
-      <c r="G8" s="22">
-        <f t="shared" ref="G7:G10" si="2">(F8-E8+20)/20</f>
+      <c r="G8" s="16">
+        <f t="shared" ref="G8:G9" si="2">(F8-E8+20)/20</f>
         <v>0.9</v>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>22</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="15">
         <v>9</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="16">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <v>27</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <v>17</v>
       </c>
-      <c r="G10" s="22">
-        <f t="shared" ref="G10:G12" si="3">(F10-E10+20)/20</f>
+      <c r="G10" s="16">
+        <f t="shared" ref="G10:G11" si="3">(F10-E10+20)/20</f>
         <v>0.5</v>
       </c>
-      <c r="H10" s="11" t="str">
+      <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>15</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="15">
         <v>2</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="16">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="H11" s="11" t="str">
+      <c r="H11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>30</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <v>11</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="15">
         <v>583</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="16">
         <f>8/20</f>
         <v>0.4</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <v>99</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="15">
         <v>98</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="16">
         <f t="shared" ref="G13:G15" si="4">(F13-E13+20)/20</f>
         <v>0.95</v>
       </c>
-      <c r="H13" s="11" t="str">
+      <c r="H13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <v>107</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="15">
         <v>110</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="16">
         <f t="shared" si="4"/>
-        <v>1.15</v>
-      </c>
-      <c r="H14" s="11" t="str">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <v>35</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="15">
         <v>28</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="16">
         <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
-      <c r="H15" s="11" t="str">
+      <c r="H15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="18">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="12">
         <f>COUNTIF(H6:H15,"Tercapai")</f>
         <v>2</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="17">
         <f>G16/ROWS(H6:H15)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="6:9">
-      <c r="F19" s="25"/>
-      <c r="G19" s="26" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="F19" s="18"/>
+      <c r="G19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="6:9">
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="6:9">
-      <c r="F21" s="25"/>
-      <c r="G21" s="28" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="F21" s="18"/>
+      <c r="G21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="6:9">
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="6:9">
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="6:9">
-      <c r="F24" s="25"/>
-      <c r="G24" s="25" t="s">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2381,352 +2025,380 @@
     <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G12">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.4266666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.5733333333333" customWidth="1"/>
-    <col min="3" max="3" width="9.85333333333333" customWidth="1"/>
-    <col min="4" max="4" width="22.2866666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.5733333333333" customWidth="1"/>
-    <col min="6" max="6" width="10.8533333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.7133333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="110.25" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="110.25" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="str">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="25" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"Putra","Putri")</f>
         <v>September 2021 - Marhalah 1 Putri</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" ht="27.75" customHeight="1" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="26"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="21">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="15">
         <v>13</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="34">
         <f t="shared" ref="G6:G7" si="0">(F6-E6+20)/20</f>
         <v>1.65</v>
       </c>
-      <c r="H6" s="11" t="str">
+      <c r="H6" s="35" t="str">
         <f t="shared" ref="H6:H12" si="1">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="21">
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="15">
         <v>54</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="34">
         <f t="shared" si="0"/>
         <v>3.7</v>
       </c>
-      <c r="H7" s="11" t="str">
+      <c r="H7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="21">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="15">
         <v>25</v>
       </c>
-      <c r="G8" s="22">
-        <f t="shared" ref="G7:G12" si="2">(F8-E8+20)/20</f>
+      <c r="G8" s="34">
+        <f t="shared" ref="G8:G12" si="2">(F8-E8+20)/20</f>
         <v>2.25</v>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="H8" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="15" t="s">
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="21">
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="15">
         <v>64</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="34">
         <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="21">
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="15">
         <v>39</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="34">
         <f t="shared" ref="G10:G11" si="3">(F10-E10+20)/20</f>
         <v>2.95</v>
       </c>
-      <c r="H10" s="11" t="str">
+      <c r="H10" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="21">
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="15">
         <v>13</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="34">
         <f t="shared" si="3"/>
         <v>1.65</v>
       </c>
-      <c r="H11" s="30" t="str">
+      <c r="H11" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="21">
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="15">
         <v>69</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="34">
         <f t="shared" si="2"/>
         <v>4.45</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="18">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="12">
         <f>COUNTIF(H6:H12,"Tercapai")</f>
         <v>7</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="17">
         <f>G13/ROWS(H6:H12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="6:8">
-      <c r="F16" s="25"/>
-      <c r="G16" s="26" t="str">
+    <row r="16" spans="1:9">
+      <c r="F16" s="18"/>
+      <c r="G16" s="19" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 30 September 2021</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="27"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="25"/>
-      <c r="G18" s="28" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="27"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="27"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="25"/>
-      <c r="G21" s="25" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
@@ -2736,381 +2408,380 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H1"/>
+    <sheetView topLeftCell="A2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.8533333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.8533333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.14" customWidth="1"/>
-    <col min="4" max="4" width="14.8533333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.4266666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.2866666666667" customWidth="1"/>
-    <col min="8" max="8" width="20.14" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="111.75" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="111.75" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="str">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="25" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"1 Putra","2 Putra")</f>
         <v>September 2021 - Marhalah 2 Putra</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" ht="24.75" customHeight="1" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="26"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="15" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>142</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="13">
         <v>135</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="14">
         <f t="shared" ref="G6:G12" si="0">(F6-E6+20)/20</f>
         <v>0.65</v>
       </c>
-      <c r="H6" s="9" t="str">
+      <c r="H6" s="5" t="str">
         <f t="shared" ref="H6:H12" si="1">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>10</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>214</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="15">
         <v>200</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="16">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="H7" s="11" t="str">
+      <c r="H7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>136</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="15">
         <v>132</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="H8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>141</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="15">
         <v>133</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="16">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <v>195</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <v>193</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="16">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="H10" s="11" t="str">
+      <c r="H10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>182</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="15">
         <v>169</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="16">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="H11" s="11" t="str">
+      <c r="H11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <v>101</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="15">
         <v>106</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="16">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="18">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="12">
         <f>COUNTIF(H6:H12,"Tercapai")</f>
         <v>1</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="17">
         <f>G13/ROWS(H6:H12)</f>
-        <v>0.142857142857143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26" t="str">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 30 September 2021</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="27"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="25"/>
-      <c r="G18" s="28" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="27"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="27"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="25"/>
-      <c r="G21" s="25" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
@@ -3120,405 +2791,444 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="13.8533333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.7133333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.4266666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.7133333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.2866666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="18.5733333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="109.5" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="109.5" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="str">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="25" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"1 Putra","2 Putri")</f>
         <v>September 2021 - Marhalah 2 Putri</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="26"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="19">
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="13">
         <v>79</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="36">
         <f>(F6-E6+20)/20</f>
         <v>4.95</v>
       </c>
-      <c r="H6" s="9" t="str">
+      <c r="H6" s="37" t="str">
         <f t="shared" ref="H6:H15" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="21">
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="15">
         <v>107</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="34">
         <f t="shared" ref="G7:G15" si="1">(F7-E7+20)/20</f>
         <v>6.35</v>
       </c>
-      <c r="H7" s="11" t="str">
+      <c r="H7" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="21">
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="15">
         <v>197</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="34">
         <f t="shared" si="1"/>
         <v>10.85</v>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="H8" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="21">
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="15">
         <v>181</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="34">
         <f t="shared" si="1"/>
-        <v>10.05</v>
-      </c>
-      <c r="H9" s="11" t="str">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="H9" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="15" t="s">
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="21">
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="15">
         <v>94</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="34">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
-      <c r="H10" s="11" t="str">
+      <c r="H10" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="21">
+      <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="15">
         <v>111</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="34">
         <f t="shared" si="1"/>
         <v>6.55</v>
       </c>
-      <c r="H11" s="11" t="str">
+      <c r="H11" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="21">
+      <c r="C12" s="7">
+        <v>13</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="15">
         <v>247</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="34">
         <f t="shared" si="1"/>
         <v>13.35</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="21">
+      <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="15">
         <v>239</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="34">
         <f t="shared" si="1"/>
         <v>12.95</v>
       </c>
-      <c r="H13" s="11" t="str">
+      <c r="H13" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="21">
+      <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="15">
         <v>117</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="34">
         <f t="shared" si="1"/>
         <v>6.85</v>
       </c>
-      <c r="H14" s="11" t="str">
+      <c r="H14" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="21">
+      <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="15">
         <v>53</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="34">
         <f t="shared" si="1"/>
         <v>3.65</v>
       </c>
-      <c r="H15" s="11" t="str">
+      <c r="H15" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="18">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="12">
         <f>COUNTIF(H6:H15,"Tercapai")</f>
         <v>10</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="17">
         <f>G16/ROWS(H6:H15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26" t="str">
+      <c r="A19" s="1"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 30 September 2021</v>
       </c>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="F21" s="25"/>
-      <c r="G21" s="28" t="s">
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="F21" s="18"/>
+      <c r="G21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="6:8">
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="6:8">
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="6:8">
-      <c r="F24" s="25"/>
-      <c r="G24" s="25" t="s">
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="27"/>
+      <c r="H24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
@@ -3528,10 +3238,9 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G15">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3542,7 +3251,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/rekap baru/2021-09.xlsx
+++ b/rekap baru/2021-09.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20378"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\pesantren\rekap-tahfidz\rekap baru\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36883B25-4792-4041-8BF8-E58E792E89C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="3" r:id="rId1"/>
@@ -24,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2 putra'!$A$1:$H$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2 putri'!$A$1:$H$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -194,30 +188,45 @@
     <t>21.02.030</t>
   </si>
   <si>
+    <t>Al-Baqarah: 88</t>
+  </si>
+  <si>
     <t>Mila Najiyah</t>
   </si>
   <si>
     <t>21.02.031</t>
   </si>
   <si>
+    <t>Ali Imran: 37</t>
+  </si>
+  <si>
     <t>Najwa Hani Fillah</t>
   </si>
   <si>
     <t>21.02.032</t>
   </si>
   <si>
+    <t>Al-Baqarah: 169</t>
+  </si>
+  <si>
     <t>Nayla Izzatul Hasanah</t>
   </si>
   <si>
     <t>21.02.033</t>
   </si>
   <si>
+    <t>Ali Imran: 115</t>
+  </si>
+  <si>
     <t>Nida Khalwatus S</t>
   </si>
   <si>
     <t>21.02.034</t>
   </si>
   <si>
+    <t>Al-Baqarah: 245</t>
+  </si>
+  <si>
     <t>Riska Fitriana Putri</t>
   </si>
   <si>
@@ -230,6 +239,9 @@
     <t>21.02.036</t>
   </si>
   <si>
+    <t>Ali Imran: 153</t>
+  </si>
+  <si>
     <t>Ja'far Asshodiq Habibullah F</t>
   </si>
   <si>
@@ -299,103 +311,85 @@
     <t>20.02.001</t>
   </si>
   <si>
+    <t>An-Nisa: 14</t>
+  </si>
+  <si>
     <t>Siti Khodijah</t>
   </si>
   <si>
     <t>20.02.002</t>
   </si>
   <si>
+    <t>Al-Maidah: 5</t>
+  </si>
+  <si>
     <t>Jahrisa Juana</t>
   </si>
   <si>
     <t>20.02.008</t>
   </si>
   <si>
+    <t>At-Taubah: 68</t>
+  </si>
+  <si>
     <t>Nurlayli Ubadah</t>
   </si>
   <si>
     <t>20.02.009</t>
   </si>
   <si>
+    <t>Al-Anfal: 40</t>
+  </si>
+  <si>
     <t>Nadyne Fathiya Chairinda</t>
   </si>
   <si>
     <t>20.02.010</t>
   </si>
   <si>
+    <t>An-Nisa: 101</t>
+  </si>
+  <si>
     <t>Salwa</t>
   </si>
   <si>
     <t>20.02.011</t>
   </si>
   <si>
+    <t>Al-Maidah: 23</t>
+  </si>
+  <si>
     <t>Muthia Shofia</t>
   </si>
   <si>
     <t>20.02.012</t>
   </si>
   <si>
+    <t>Yusuf: 103</t>
+  </si>
+  <si>
     <t>Nada Sahla Syahidah</t>
   </si>
   <si>
     <t>20.02.014</t>
   </si>
   <si>
+    <t>Yusuf: 37</t>
+  </si>
+  <si>
     <t>Nada Sabila Syahidah</t>
   </si>
   <si>
     <t>20.02.015</t>
   </si>
   <si>
+    <t>Al-Maidah: 57</t>
+  </si>
+  <si>
     <t>Inas Afifah</t>
   </si>
   <si>
     <t>20.02.016</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 88</t>
-  </si>
-  <si>
-    <t>Ali Imran: 37</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 169</t>
-  </si>
-  <si>
-    <t>Ali Imran: 115</t>
-  </si>
-  <si>
-    <t>Al-Baqarah: 245</t>
-  </si>
-  <si>
-    <t>Ali Imran: 153</t>
-  </si>
-  <si>
-    <t>An-Nisa: 14</t>
-  </si>
-  <si>
-    <t>Al-Maidah: 5</t>
-  </si>
-  <si>
-    <t>At-Taubah: 68</t>
-  </si>
-  <si>
-    <t>Al-Anfal: 40</t>
-  </si>
-  <si>
-    <t>An-Nisa: 101</t>
-  </si>
-  <si>
-    <t>Al-Maidah: 23</t>
-  </si>
-  <si>
-    <t>Yusuf: 103</t>
-  </si>
-  <si>
-    <t>Yusuf: 37</t>
-  </si>
-  <si>
-    <t>Al-Maidah: 57</t>
   </si>
   <si>
     <t>Ali Imran: 29</t>
@@ -404,20 +398,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,21 +435,165 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,12 +602,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF4747"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -556,58 +873,324 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -617,180 +1200,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -805,23 +1289,20 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF4747"/>
-      <color rgb="FFFF8989"/>
+      <color rgb="00FF4747"/>
+      <color rgb="00FF8989"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -832,19 +1313,13 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -906,19 +1381,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -945,7 +1414,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -956,19 +1425,13 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1030,19 +1493,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1055,8 +1512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4058224" y="0"/>
-          <a:ext cx="807643" cy="847725"/>
+          <a:off x="5535930" y="0"/>
+          <a:ext cx="807720" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1069,7 +1526,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1080,19 +1537,13 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1154,19 +1605,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76520058-4042-4CA4-A29F-C194995D4A71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1179,8 +1624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3730994" y="0"/>
-          <a:ext cx="807643" cy="847725"/>
+          <a:off x="4980940" y="0"/>
+          <a:ext cx="1212850" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1193,7 +1638,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1204,19 +1649,13 @@
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1278,19 +1717,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1568,449 +2001,448 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:H24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.14" customWidth="1"/>
+    <col min="3" max="3" width="11.2866666666667" customWidth="1"/>
+    <col min="4" max="4" width="24.8533333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.14" customWidth="1"/>
+    <col min="6" max="6" width="11.8533333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.8533333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.7133333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="111.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" ht="111.75" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="26"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="11">
         <v>30</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="11">
         <v>8</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="22">
         <v>591</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="35">
         <f>3/20</f>
         <v>0.15</v>
       </c>
-      <c r="H6" s="7" t="str">
+      <c r="H6" s="11" t="str">
         <f t="shared" ref="H6:H15" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="11">
         <v>42</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="22">
         <v>42</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="35">
         <f t="shared" ref="G7" si="1">(F7-E7+20)/20</f>
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="str">
+      <c r="H7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="11">
         <v>60</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="22">
         <v>58</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="35">
         <f t="shared" ref="G8:G9" si="2">(F8-E8+20)/20</f>
         <v>0.9</v>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="H8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="11">
         <v>22</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="22">
         <v>9</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="35">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="H9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="11">
         <v>27</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="22">
         <v>17</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="35">
         <f t="shared" ref="G10:G11" si="3">(F10-E10+20)/20</f>
         <v>0.5</v>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="H10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="11">
         <v>15</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="22">
         <v>2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="35">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="H11" s="7" t="str">
+      <c r="H11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="11">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="11">
         <v>11</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="22">
         <v>583</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="35">
         <f>8/20</f>
         <v>0.4</v>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="H12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="11">
         <v>5</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="11">
         <v>99</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="22">
         <v>98</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="35">
         <f t="shared" ref="G13:G15" si="4">(F13-E13+20)/20</f>
         <v>0.95</v>
       </c>
-      <c r="H13" s="7" t="str">
+      <c r="H13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="11">
         <v>6</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="11">
         <v>107</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="22">
         <v>110</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="35">
         <f t="shared" si="4"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H14" s="7" t="str">
+        <v>1.15</v>
+      </c>
+      <c r="H14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="11">
         <v>2</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="11">
         <v>35</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="22">
         <v>28</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="35">
         <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
-      <c r="H15" s="7" t="str">
+      <c r="H15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="12">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="18">
         <f>COUNTIF(H6:H15,"Tercapai")</f>
         <v>2</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="26">
         <f>G16/ROWS(H6:H15)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="F19" s="18"/>
-      <c r="G19" s="19" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" s="27"/>
+      <c r="G19" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="F21" s="18"/>
-      <c r="G21" s="21" t="s">
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" s="27"/>
+      <c r="G21" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2025,380 +2457,394 @@
     <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G12">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H15">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.5733333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.85333333333333" customWidth="1"/>
+    <col min="4" max="4" width="22.2866666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.5733333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.8533333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.7133333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="110.25" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" ht="110.25" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="25" t="str">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"Putra","Putri")</f>
         <v>September 2021 - Marhalah 1 Putri</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="27.75" customHeight="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="26"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="15">
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11">
+        <v>18</v>
+      </c>
+      <c r="F6" s="22">
         <v>13</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="23">
         <f t="shared" ref="G6:G7" si="0">(F6-E6+20)/20</f>
-        <v>1.65</v>
-      </c>
-      <c r="H6" s="35" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="24" t="str">
         <f t="shared" ref="H6:H12" si="1">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Tercapai</v>
+        <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="7">
+      <c r="B7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11">
         <v>3</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="15">
+      <c r="D7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="11">
+        <v>51</v>
+      </c>
+      <c r="F7" s="22">
         <v>54</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="23">
         <f t="shared" si="0"/>
-        <v>3.7</v>
-      </c>
-      <c r="H7" s="35" t="str">
+        <v>1.15</v>
+      </c>
+      <c r="H7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="A8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="15">
+      <c r="D8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="11">
+        <v>27</v>
+      </c>
+      <c r="F8" s="22">
         <v>25</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="23">
         <f t="shared" ref="G8:G12" si="2">(F8-E8+20)/20</f>
-        <v>2.25</v>
-      </c>
-      <c r="H8" s="35" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Belum Tercapai</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="11">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="11">
+        <v>68</v>
+      </c>
+      <c r="F9" s="22">
+        <v>64</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="11">
+        <v>53</v>
+      </c>
+      <c r="F10" s="22">
+        <v>39</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" ref="G10:G11" si="3">(F10-E10+20)/20</f>
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="36">
+        <v>20</v>
+      </c>
+      <c r="F11" s="22">
+        <v>13</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="11">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="11">
+        <v>64</v>
+      </c>
+      <c r="F12" s="22">
+        <v>69</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="7">
-        <v>4</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="15">
-        <v>64</v>
-      </c>
-      <c r="G9" s="34">
-        <f t="shared" si="2"/>
-        <v>4.2</v>
-      </c>
-      <c r="H9" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="7">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="18">
+        <f>COUNTIF(H6:H12,"Tercapai")</f>
         <v>2</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="15">
-        <v>39</v>
-      </c>
-      <c r="G10" s="34">
-        <f t="shared" ref="G10:G11" si="3">(F10-E10+20)/20</f>
-        <v>2.95</v>
-      </c>
-      <c r="H10" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="15">
-        <v>13</v>
-      </c>
-      <c r="G11" s="34">
-        <f t="shared" si="3"/>
-        <v>1.65</v>
-      </c>
-      <c r="H11" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="15">
-        <v>69</v>
-      </c>
-      <c r="G12" s="34">
-        <f t="shared" si="2"/>
-        <v>4.45</v>
-      </c>
-      <c r="H12" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="12">
-        <f>COUNTIF(H6:H12,"Tercapai")</f>
-        <v>7</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="H13" s="26">
         <f>G13/ROWS(H6:H12)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="F16" s="18"/>
-      <c r="G16" s="19" t="str">
+        <v>0.285714285714286</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
+      <c r="F16" s="27"/>
+      <c r="G16" s="28" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 30 September 2021</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="20"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="18"/>
-      <c r="G18" s="21" t="s">
+      <c r="F18" s="27"/>
+      <c r="G18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="20"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
@@ -2408,380 +2854,381 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.8533333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.8533333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.14" customWidth="1"/>
+    <col min="4" max="4" width="14.8533333333333" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.4266666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.2866666666667" customWidth="1"/>
+    <col min="8" max="8" width="20.14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="111.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" ht="111.75" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="25" t="str">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"1 Putra","2 Putra")</f>
         <v>September 2021 - Marhalah 2 Putra</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="26"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="9">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="9">
         <v>142</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="19">
         <v>135</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="34">
         <f t="shared" ref="G6:G12" si="0">(F6-E6+20)/20</f>
         <v>0.65</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="9" t="str">
         <f t="shared" ref="H6:H12" si="1">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="7">
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="11">
         <v>214</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="22">
         <v>200</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="H7" s="7" t="str">
+      <c r="H7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="A8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="11">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="11">
         <v>136</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="22">
         <v>132</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="H8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="A9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="9">
         <v>7</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="11">
         <v>141</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="22">
         <v>133</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="H9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11">
         <v>10</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="11">
         <v>195</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="22">
         <v>193</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="H10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="7">
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="11">
         <v>9</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="11">
         <v>182</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="22">
         <v>169</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="H11" s="7" t="str">
+      <c r="H11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="7">
+    <row r="12" spans="1:8">
+      <c r="A12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="11">
         <v>101</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="22">
         <v>106</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="35">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="H12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="12">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="18">
         <f>COUNTIF(H6:H12,"Tercapai")</f>
         <v>1</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="26">
         <f>G13/ROWS(H6:H12)</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19" t="str">
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 30 September 2021</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="20"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="18"/>
-      <c r="G18" s="21" t="s">
+      <c r="F18" s="27"/>
+      <c r="G18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="20"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
@@ -2791,444 +3238,465 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.8533333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.7133333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.4266666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.7133333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.2866666666667" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5733333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="109.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" ht="109.5" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="25" t="str">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="str">
         <f>SUBSTITUTE('1 putra'!A2:H2,"1 Putra","2 Putri")</f>
         <v>September 2021 - Marhalah 2 Putri</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="26"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="9">
+        <v>92</v>
+      </c>
+      <c r="F6" s="19">
+        <v>79</v>
+      </c>
+      <c r="G6" s="20">
+        <f>(F6-E6+20)/20</f>
+        <v>0.35</v>
+      </c>
+      <c r="H6" s="21" t="str">
+        <f t="shared" ref="H6:H15" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="11">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="11">
+        <v>112</v>
+      </c>
+      <c r="F7" s="22">
         <v>107</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="13">
-        <v>79</v>
-      </c>
-      <c r="G6" s="36">
-        <f>(F6-E6+20)/20</f>
-        <v>4.95</v>
-      </c>
-      <c r="H6" s="37" t="str">
-        <f t="shared" ref="H6:H15" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="15">
-        <v>107</v>
-      </c>
-      <c r="G7" s="34">
+      <c r="G7" s="23">
         <f t="shared" ref="G7:G15" si="1">(F7-E7+20)/20</f>
-        <v>6.35</v>
-      </c>
-      <c r="H7" s="35" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="11">
+        <v>190</v>
+      </c>
+      <c r="F8" s="22">
+        <v>197</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
+      <c r="H8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="7">
-        <v>10</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="15">
-        <v>197</v>
-      </c>
-      <c r="G8" s="34">
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="11">
+        <v>9</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="11">
+        <v>179</v>
+      </c>
+      <c r="F9" s="22">
+        <v>181</v>
+      </c>
+      <c r="G9" s="23">
         <f t="shared" si="1"/>
-        <v>10.85</v>
-      </c>
-      <c r="H8" s="35" t="str">
+        <v>1.1</v>
+      </c>
+      <c r="H9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="15">
-        <v>181</v>
-      </c>
-      <c r="G9" s="34">
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="11">
+        <v>90</v>
+      </c>
+      <c r="F10" s="22">
+        <v>94</v>
+      </c>
+      <c r="G10" s="23">
         <f t="shared" si="1"/>
-        <v>10.050000000000001</v>
-      </c>
-      <c r="H9" s="35" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="H10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="7">
-        <v>5</v>
-      </c>
-      <c r="D10" s="38" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="11">
+        <v>114</v>
+      </c>
+      <c r="F11" s="22">
         <v>111</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="15">
-        <v>94</v>
-      </c>
-      <c r="G10" s="34">
+      <c r="G11" s="23">
         <f t="shared" si="1"/>
-        <v>5.7</v>
-      </c>
-      <c r="H10" s="35" t="str">
+        <v>0.85</v>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="11">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="11">
+        <v>237</v>
+      </c>
+      <c r="F12" s="22">
+        <v>247</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="7">
-        <v>6</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="15">
-        <v>111</v>
-      </c>
-      <c r="G11" s="34">
+    <row r="13" spans="1:8">
+      <c r="A13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="11">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="11">
+        <v>234</v>
+      </c>
+      <c r="F13" s="22">
+        <v>239</v>
+      </c>
+      <c r="G13" s="23">
         <f t="shared" si="1"/>
-        <v>6.55</v>
-      </c>
-      <c r="H11" s="35" t="str">
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="7">
-        <v>13</v>
-      </c>
-      <c r="D12" s="38" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="11">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="15">
-        <v>247</v>
-      </c>
-      <c r="G12" s="34">
+      <c r="E14" s="11">
+        <v>114</v>
+      </c>
+      <c r="F14" s="22">
+        <v>117</v>
+      </c>
+      <c r="G14" s="23">
         <f t="shared" si="1"/>
-        <v>13.35</v>
-      </c>
-      <c r="H12" s="35" t="str">
+        <v>1.15</v>
+      </c>
+      <c r="H14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="7">
-        <v>12</v>
-      </c>
-      <c r="D13" s="38" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="15">
-        <v>239</v>
-      </c>
-      <c r="G13" s="34">
+      <c r="B15" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="11">
+        <v>62</v>
+      </c>
+      <c r="F15" s="22">
+        <v>53</v>
+      </c>
+      <c r="G15" s="23">
         <f t="shared" si="1"/>
-        <v>12.95</v>
-      </c>
-      <c r="H13" s="35" t="str">
+        <v>0.55</v>
+      </c>
+      <c r="H15" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="7">
+        <v>Belum Tercapai</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="18">
+        <f>COUNTIF(H6:H15,"Tercapai")</f>
         <v>6</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="15">
-        <v>117</v>
-      </c>
-      <c r="G14" s="34">
-        <f t="shared" si="1"/>
-        <v>6.85</v>
-      </c>
-      <c r="H14" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="15">
-        <v>53</v>
-      </c>
-      <c r="G15" s="34">
-        <f t="shared" si="1"/>
-        <v>3.65</v>
-      </c>
-      <c r="H15" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="12">
-        <f>COUNTIF(H6:H15,"Tercapai")</f>
-        <v>10</v>
-      </c>
-      <c r="H16" s="17">
+      <c r="H16" s="26">
         <f>G16/ROWS(H6:H15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19" t="str">
+      <c r="A19" s="3"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28" t="str">
         <f>'1 putra'!G19</f>
         <v>Samarinda, 30 September 2021</v>
       </c>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="F21" s="18"/>
-      <c r="G21" s="21" t="s">
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" s="27"/>
+      <c r="G21" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
@@ -3238,9 +3706,10 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3251,6 +3720,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/rekap baru/2021-09.xlsx
+++ b/rekap baru/2021-09.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7845" activeTab="1"/>
+    <workbookView windowWidth="19485" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="122">
   <si>
     <t>DATA PENCAPAIAN TAHFIDZ</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Keterangan</t>
   </si>
   <si>
+    <t>Murajaah</t>
+  </si>
+  <si>
     <t>Juz</t>
   </si>
   <si>
@@ -59,6 +62,15 @@
   </si>
   <si>
     <t>Diperoleh</t>
+  </si>
+  <si>
+    <t>Dari</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Tambahan</t>
   </si>
   <si>
     <t>Arviandow</t>
@@ -377,6 +389,9 @@
     <t>Yusuf: 37</t>
   </si>
   <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>Nada Sabila Syahidah</t>
   </si>
   <si>
@@ -400,10 +415,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -450,6 +465,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -457,9 +488,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,16 +503,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -496,6 +540,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -503,59 +563,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -570,17 +585,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,13 +617,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,13 +671,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,103 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,43 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,13 +928,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,15 +948,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,159 +967,164 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1117,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1144,13 +1159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1190,7 +1205,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1201,27 +1216,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,7 +1355,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="-297914">
-          <a:off x="8892540" y="4987925"/>
+          <a:off x="7180580" y="4845050"/>
           <a:ext cx="904875" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1400,7 +1422,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5570855" y="0"/>
+          <a:off x="4563745" y="0"/>
           <a:ext cx="807720" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1445,7 +1467,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="-297914">
-          <a:off x="8420735" y="4503420"/>
+          <a:off x="6787515" y="4389120"/>
           <a:ext cx="904875" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1512,7 +1534,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5535930" y="0"/>
+          <a:off x="4547870" y="0"/>
           <a:ext cx="807720" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1557,7 +1579,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="-297914">
-          <a:off x="8004175" y="4492625"/>
+          <a:off x="6447155" y="4378325"/>
           <a:ext cx="904875" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1624,8 +1646,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4980940" y="0"/>
-          <a:ext cx="1212850" cy="847725"/>
+          <a:off x="4147820" y="0"/>
+          <a:ext cx="943610" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1669,7 +1691,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="-297914">
-          <a:off x="8229600" y="4971415"/>
+          <a:off x="6635115" y="4828540"/>
           <a:ext cx="904875" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1736,7 +1758,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5335905" y="0"/>
+          <a:off x="4315460" y="0"/>
           <a:ext cx="807720" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2009,22 +2031,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.4266666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.14" customWidth="1"/>
-    <col min="3" max="3" width="11.2866666666667" customWidth="1"/>
-    <col min="4" max="4" width="24.8533333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.14" customWidth="1"/>
-    <col min="6" max="6" width="11.8533333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.8533333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.7133333333333" customWidth="1"/>
+    <col min="1" max="1" width="27.425" customWidth="1"/>
+    <col min="2" max="2" width="14.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.85" customWidth="1"/>
+    <col min="5" max="5" width="12.1416666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.85" customWidth="1"/>
+    <col min="7" max="7" width="14.85" customWidth="1"/>
+    <col min="8" max="8" width="15.7166666666667" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="3.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="111.75" customHeight="1" spans="1:8">
@@ -2060,7 +2085,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2081,37 +2106,51 @@
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="11">
         <v>30</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" s="11">
         <v>8</v>
@@ -2127,19 +2166,24 @@
         <f t="shared" ref="H6:H15" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="38">
+        <v>30</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>17</v>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="11">
         <v>42</v>
@@ -2155,20 +2199,26 @@
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="41">
+        <v>30</v>
+      </c>
+      <c r="J7" s="38">
+        <v>2</v>
+      </c>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>20</v>
+      <c r="D8" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="11">
         <v>60</v>
@@ -2184,19 +2234,26 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="38">
+        <v>30</v>
+      </c>
+      <c r="J8" s="38">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>23</v>
+      <c r="D9" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="11">
         <v>22</v>
@@ -2212,19 +2269,26 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="38">
+        <v>30</v>
+      </c>
+      <c r="J9" s="38">
+        <v>1</v>
+      </c>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>26</v>
+      <c r="D10" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="11">
         <v>27</v>
@@ -2240,19 +2304,26 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="38">
+        <v>30</v>
+      </c>
+      <c r="J10" s="38">
+        <v>1</v>
+      </c>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>29</v>
+      <c r="D11" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="11">
         <v>15</v>
@@ -2268,19 +2339,24 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="38">
+        <v>30</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="11">
         <v>30</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>32</v>
+      <c r="D12" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="11">
         <v>11</v>
@@ -2296,19 +2372,24 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="38">
+        <v>30</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" s="11">
         <v>5</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>35</v>
+      <c r="D13" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="11">
         <v>99</v>
@@ -2324,19 +2405,26 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="38">
+        <v>30</v>
+      </c>
+      <c r="J13" s="38">
+        <v>4</v>
+      </c>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C14" s="11">
         <v>6</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>38</v>
+      <c r="D14" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="11">
         <v>107</v>
@@ -2352,19 +2440,26 @@
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="38">
+        <v>1</v>
+      </c>
+      <c r="J14" s="38">
+        <v>5</v>
+      </c>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" s="11">
         <v>2</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>41</v>
+      <c r="D15" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="E15" s="11">
         <v>35</v>
@@ -2380,10 +2475,17 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
+      <c r="I15" s="38">
+        <v>1</v>
+      </c>
+      <c r="J15" s="38">
+        <v>2</v>
+      </c>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -2394,7 +2496,7 @@
         <f>COUNTIF(H6:H15,"Tercapai")</f>
         <v>2</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="36">
         <f>G16/ROWS(H6:H15)</f>
         <v>0.2</v>
       </c>
@@ -2405,7 +2507,7 @@
     <row r="19" spans="6:9">
       <c r="F19" s="27"/>
       <c r="G19" s="28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
@@ -2419,7 +2521,7 @@
     <row r="21" spans="6:9">
       <c r="F21" s="27"/>
       <c r="G21" s="30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
@@ -2439,17 +2541,18 @@
     <row r="24" spans="6:9">
       <c r="F24" s="27"/>
       <c r="G24" s="27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2498,22 +2601,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.4266666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.5733333333333" customWidth="1"/>
-    <col min="3" max="3" width="9.85333333333333" customWidth="1"/>
-    <col min="4" max="4" width="22.2866666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.5733333333333" customWidth="1"/>
-    <col min="6" max="6" width="10.8533333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.7133333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.425" customWidth="1"/>
+    <col min="2" max="2" width="13.575" customWidth="1"/>
+    <col min="3" max="3" width="9.85" customWidth="1"/>
+    <col min="4" max="4" width="22.2833333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.575" customWidth="1"/>
+    <col min="6" max="6" width="10.85" customWidth="1"/>
+    <col min="7" max="7" width="14.7166666666667" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="3.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="110.25" customHeight="1" spans="1:8">
@@ -2550,7 +2656,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2571,37 +2677,51 @@
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E6" s="11">
         <v>18</v>
@@ -2617,19 +2737,22 @@
         <f t="shared" ref="H6:H12" si="1">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" s="11">
         <v>51</v>
@@ -2645,20 +2768,26 @@
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="32">
+        <v>2</v>
+      </c>
+      <c r="J7" s="31">
+        <v>3</v>
+      </c>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E8" s="11">
         <v>27</v>
@@ -2674,20 +2803,26 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="32">
+        <v>30</v>
+      </c>
+      <c r="J8" s="31">
+        <v>1</v>
+      </c>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" s="11">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E9" s="11">
         <v>68</v>
@@ -2703,19 +2838,26 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+      <c r="J9" s="31">
+        <v>2</v>
+      </c>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" s="11">
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E10" s="11">
         <v>53</v>
@@ -2731,21 +2873,24 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="36">
+        <v>66</v>
+      </c>
+      <c r="C11" s="24">
         <v>1</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="D11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="24">
         <v>20</v>
       </c>
       <c r="F11" s="22">
@@ -2759,19 +2904,22 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C12" s="11">
         <v>4</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E12" s="11">
         <v>64</v>
@@ -2787,10 +2935,13 @@
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -2801,7 +2952,7 @@
         <f>COUNTIF(H6:H12,"Tercapai")</f>
         <v>2</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="36">
         <f>G13/ROWS(H6:H12)</f>
         <v>0.285714285714286</v>
       </c>
@@ -2822,7 +2973,7 @@
     <row r="18" spans="6:8">
       <c r="F18" s="27"/>
       <c r="G18" s="30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H18" s="29"/>
     </row>
@@ -2839,7 +2990,7 @@
     <row r="21" spans="6:8">
       <c r="F21" s="27"/>
       <c r="G21" s="27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H21" s="29"/>
     </row>
@@ -2849,12 +3000,12 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
@@ -2878,22 +3029,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H21"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.8533333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.8533333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.14" customWidth="1"/>
-    <col min="4" max="4" width="14.8533333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.85" customWidth="1"/>
+    <col min="2" max="2" width="12.85" customWidth="1"/>
+    <col min="3" max="3" width="14.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.85" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.4266666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.2866666666667" customWidth="1"/>
-    <col min="8" max="8" width="20.14" customWidth="1"/>
+    <col min="6" max="6" width="10.425" customWidth="1"/>
+    <col min="7" max="7" width="14.2833333333333" customWidth="1"/>
+    <col min="8" max="8" width="20.1416666666667" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="3.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="111.75" customHeight="1" spans="1:8">
@@ -2930,7 +3084,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2951,37 +3105,51 @@
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" s="9">
         <v>7</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>68</v>
+      <c r="D6" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E6" s="9">
         <v>142</v>
@@ -2997,19 +3165,26 @@
         <f t="shared" ref="H6:H12" si="1">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="38">
+        <v>30</v>
+      </c>
+      <c r="J6" s="38">
+        <v>4</v>
+      </c>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>71</v>
+      <c r="D7" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="E7" s="11">
         <v>214</v>
@@ -3025,19 +3200,28 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="38">
+        <v>7</v>
+      </c>
+      <c r="J7" s="38">
+        <v>10</v>
+      </c>
+      <c r="K7" s="38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C8" s="11">
         <v>7</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>74</v>
+      <c r="D8" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E8" s="11">
         <v>136</v>
@@ -3053,20 +3237,28 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="39">
+        <v>2</v>
+      </c>
+      <c r="J8" s="38">
+        <v>3</v>
+      </c>
+      <c r="K8" s="38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C9" s="9">
         <v>7</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>77</v>
+      <c r="D9" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="E9" s="11">
         <v>141</v>
@@ -3082,20 +3274,26 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="39">
+        <v>30</v>
+      </c>
+      <c r="J9" s="38">
+        <v>4</v>
+      </c>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C10" s="11">
         <v>10</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>80</v>
+      <c r="D10" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="E10" s="11">
         <v>195</v>
@@ -3111,19 +3309,26 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="38">
+        <v>6</v>
+      </c>
+      <c r="J10" s="38">
+        <v>9</v>
+      </c>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11">
         <v>9</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>83</v>
+      <c r="D11" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="E11" s="11">
         <v>182</v>
@@ -3139,19 +3344,26 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="38">
+        <v>30</v>
+      </c>
+      <c r="J11" s="38">
+        <v>2</v>
+      </c>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>86</v>
+      <c r="D12" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="E12" s="11">
         <v>101</v>
@@ -3167,10 +3379,17 @@
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
+      <c r="I12" s="38">
+        <v>1</v>
+      </c>
+      <c r="J12" s="38">
+        <v>5</v>
+      </c>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -3181,7 +3400,7 @@
         <f>COUNTIF(H6:H12,"Tercapai")</f>
         <v>1</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="36">
         <f>G13/ROWS(H6:H12)</f>
         <v>0.142857142857143</v>
       </c>
@@ -3206,7 +3425,7 @@
     <row r="18" spans="6:8">
       <c r="F18" s="27"/>
       <c r="G18" s="30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H18" s="29"/>
     </row>
@@ -3223,7 +3442,7 @@
     <row r="21" spans="6:8">
       <c r="F21" s="27"/>
       <c r="G21" s="27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H21" s="29"/>
     </row>
@@ -3233,12 +3452,12 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
@@ -3262,22 +3481,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="13.8533333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.7133333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.4266666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.7133333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.2866666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.85" customWidth="1"/>
+    <col min="3" max="3" width="11.7166666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.425" customWidth="1"/>
+    <col min="5" max="5" width="11.7166666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.2833333333333" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="18.5733333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.575" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="3.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="109.5" customHeight="1" spans="1:8">
@@ -3314,7 +3536,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3335,37 +3557,51 @@
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C6" s="9">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E6" s="9">
         <v>92</v>
@@ -3381,19 +3617,26 @@
         <f t="shared" ref="H6:H15" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="31">
+        <v>30</v>
+      </c>
+      <c r="J6" s="31">
+        <v>3</v>
+      </c>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C7" s="11">
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E7" s="11">
         <v>112</v>
@@ -3409,19 +3652,26 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="31">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31">
+        <v>5</v>
+      </c>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C8" s="11">
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E8" s="11">
         <v>190</v>
@@ -3437,20 +3687,26 @@
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="32">
+        <v>3</v>
+      </c>
+      <c r="J8" s="31">
+        <v>7</v>
+      </c>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C9" s="11">
         <v>9</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E9" s="11">
         <v>179</v>
@@ -3466,20 +3722,28 @@
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="32">
+        <v>3</v>
+      </c>
+      <c r="J9" s="31">
+        <v>6</v>
+      </c>
+      <c r="K9" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="15" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C10" s="11">
         <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E10" s="11">
         <v>90</v>
@@ -3495,19 +3759,26 @@
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="31">
+        <v>30</v>
+      </c>
+      <c r="J10" s="31">
+        <v>3</v>
+      </c>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C11" s="11">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E11" s="11">
         <v>114</v>
@@ -3523,19 +3794,26 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="31">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31">
+        <v>5</v>
+      </c>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C12" s="11">
         <v>13</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E12" s="11">
         <v>237</v>
@@ -3551,19 +3829,26 @@
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="31">
+        <v>7</v>
+      </c>
+      <c r="J12" s="31">
+        <v>11</v>
+      </c>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C13" s="11">
         <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E13" s="11">
         <v>234</v>
@@ -3579,19 +3864,28 @@
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="31">
+        <v>9</v>
+      </c>
+      <c r="J13" s="31">
+        <v>11</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C14" s="11">
         <v>6</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E14" s="11">
         <v>114</v>
@@ -3607,19 +3901,26 @@
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="31">
+        <v>1</v>
+      </c>
+      <c r="J14" s="31">
+        <v>4</v>
+      </c>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C15" s="11">
         <v>3</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E15" s="11">
         <v>62</v>
@@ -3635,10 +3936,17 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="31">
+        <v>1</v>
+      </c>
+      <c r="J15" s="31">
+        <v>2</v>
+      </c>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -3653,6 +3961,9 @@
         <f>G16/ROWS(H6:H15)</f>
         <v>0.6</v>
       </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3"/>
@@ -3674,7 +3985,7 @@
     <row r="21" spans="6:8">
       <c r="F21" s="27"/>
       <c r="G21" s="30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H21" s="29"/>
     </row>
@@ -3691,7 +4002,7 @@
     <row r="24" spans="6:8">
       <c r="F24" s="27"/>
       <c r="G24" s="27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H24" s="29"/>
     </row>
@@ -3701,12 +4012,12 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G15">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
